--- a/results/LGBMClassifier-val_df.xlsx
+++ b/results/LGBMClassifier-val_df.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.631578947368421</v>
+        <v>0.3</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7586206896551724</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
         <v>14</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6928571428571428</v>
+        <v>0.4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6950998185117967</v>
+        <v>0.4</v>
       </c>
       <c r="E5" t="n">
         <v>24</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7055555555555554</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D6" t="n">
-        <v>0.705686630369026</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E6" t="n">
         <v>24</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E8" t="n">
         <v>14</v>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.53125</v>
+        <v>0.4375</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5285714285714286</v>
+        <v>0.4428571428571428</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4965034965034965</v>
+        <v>0.4125874125874126</v>
       </c>
       <c r="E10" t="n">
         <v>24</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.546875</v>
+        <v>0.4479166666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4895104895104894</v>
+        <v>0.4044289044289044</v>
       </c>
       <c r="E11" t="n">
         <v>24</v>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C12" t="n">
         <v>0.6</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6153846153846153</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="n">
         <v>14</v>
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5833333333333333</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5857142857142856</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5804195804195804</v>
+        <v>0.5</v>
       </c>
       <c r="E15" t="n">
         <v>24</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5972222222222222</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5862470862470862</v>
+        <v>0.5</v>
       </c>
       <c r="E16" t="n">
         <v>24</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="C17" t="n">
         <v>0.5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="E18" t="n">
         <v>14</v>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E19" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4965034965034965</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E20" t="n">
         <v>24</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.513888888888889</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5034965034965034</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="E21" t="n">
         <v>24</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4615384615384616</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5217391304347826</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.6363636363636364</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.4799999999999999</v>
       </c>
       <c r="E23" t="n">
         <v>14</v>
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4583333333333333</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.548951048951049</v>
+        <v>0.465034965034965</v>
       </c>
       <c r="C25" t="n">
-        <v>0.55</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5408695652173914</v>
+        <v>0.457391304347826</v>
       </c>
       <c r="E25" t="n">
         <v>24</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.5635198135198135</v>
+        <v>0.4784382284382284</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5440579710144928</v>
+        <v>0.4611594202898551</v>
       </c>
       <c r="E26" t="n">
         <v>24</v>
